--- a/docs/Entities.xlsx
+++ b/docs/Entities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianSegura\source\repos\Cotix\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BDE6F5-BB6D-4CD0-9FD1-296CAD481BF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD1D98E-998A-4CBC-B045-A21178523107}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>User</t>
   </si>
@@ -197,10 +197,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,14 +505,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -528,7 +528,9 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
@@ -540,7 +542,9 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
@@ -581,18 +585,18 @@
       <c r="E8" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="G11" s="3" t="s">
+      <c r="E11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -657,10 +661,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="2" t="s">

--- a/docs/Entities.xlsx
+++ b/docs/Entities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianSegura\source\repos\Cotix\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD1D98E-998A-4CBC-B045-A21178523107}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17A8BB5-5F31-4BEB-AE4F-FD1AE368D889}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="0" windowWidth="15435" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>User</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>??</t>
+  </si>
+  <si>
+    <t>Company</t>
   </si>
 </sst>
 </file>
@@ -488,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H23"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,11 +535,9 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -546,7 +547,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -560,9 +561,11 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -570,7 +573,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -580,167 +583,173 @@
       </c>
       <c r="B8" s="1"/>
       <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="B12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="E12" s="4"/>
+      <c r="G12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="D16" s="3" t="s">
+      <c r="B17" s="1"/>
+      <c r="D17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="B18" s="1"/>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1"/>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1"/>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1"/>
       <c r="D21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
